--- a/public/uploads/KPI aire Agosto.xlsx
+++ b/public/uploads/KPI aire Agosto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\plan matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF500EF7-BDBA-4F5E-8772-C6DAB6AEE5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7411213-03D4-4551-AC1E-87AB26A9B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,21 +446,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,6 +456,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +861,7 @@
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,11 +874,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>44764</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -928,7 +928,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>44767</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -950,7 +950,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>44768</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1012,7 +1012,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>44769</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1054,7 +1054,7 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>44770</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1116,7 +1116,7 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>44771</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1168,7 +1168,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="5" t="s">
         <v>73</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="5" t="s">
         <v>74</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>44774</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1210,7 +1210,7 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="5" t="s">
         <v>68</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="5" t="s">
         <v>70</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>44775</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1272,7 +1272,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="5" t="s">
         <v>60</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="5" t="s">
         <v>61</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="5" t="s">
         <v>62</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>44776</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1344,7 +1344,7 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="5" t="s">
         <v>17</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="5" t="s">
         <v>18</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>44777</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1386,7 +1386,7 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="5" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="5" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="5" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="9">
         <v>44781</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1460,7 +1460,7 @@
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="5" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="5" t="s">
         <v>68</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="5" t="s">
         <v>69</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="5" t="s">
         <v>70</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="5" t="s">
         <v>71</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>44782</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1522,7 +1522,7 @@
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="5" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="5" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="5" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="5" t="s">
         <v>28</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <v>44783</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -1584,7 +1584,7 @@
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="5" t="s">
         <v>39</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="5" t="s">
         <v>40</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="5" t="s">
         <v>41</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="5" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="5" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <v>44784</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -1656,7 +1656,7 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="5" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="4" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="4" t="s">
         <v>33</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="4" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="4" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="4" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <v>44785</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -1738,7 +1738,7 @@
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="4" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="4" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <v>44789</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -1780,7 +1780,7 @@
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="4" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="4" t="s">
         <v>51</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="4" t="s">
         <v>52</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="4" t="s">
         <v>53</v>
       </c>
@@ -1820,25 +1820,25 @@
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="9"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="4" t="s">
         <v>56</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="4" t="s">
         <v>57</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <v>44790</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -1880,7 +1880,7 @@
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="4" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <v>44791</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -1922,7 +1922,7 @@
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="5" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="5" t="s">
         <v>68</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="5" t="s">
         <v>69</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="5" t="s">
         <v>70</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="9">
         <v>44792</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -1984,7 +1984,7 @@
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="5" t="s">
         <v>65</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="5" t="s">
         <v>66</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="5" t="s">
         <v>67</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="5" t="s">
         <v>22</v>
       </c>
@@ -2035,11 +2035,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A96"/>
+    <mergeCell ref="A97:A100"/>
     <mergeCell ref="A107:A112"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A32:A37"/>
@@ -2051,11 +2051,11 @@
     <mergeCell ref="A62:A67"/>
     <mergeCell ref="A101:A106"/>
     <mergeCell ref="A68:A74"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A96"/>
-    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
